--- a/output/results.xlsx
+++ b/output/results.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="2700" windowWidth="32780" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13840" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
     <sheet name="Final" sheetId="2" r:id="rId2"/>
+    <sheet name="RFRaw" sheetId="3" r:id="rId3"/>
+    <sheet name="RFFinal" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -20,7 +22,357 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="167">
+  <si>
+    <t>Weighted false positive rate = 0.877709852879</t>
+  </si>
+  <si>
+    <t>Precision = 0.876419887531</t>
+  </si>
+  <si>
+    <t>Recall = 0.876419887531</t>
+  </si>
+  <si>
+    <t>F1 Score = 0.876419887531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 0.0 precision = 0.879117482345                                            </t>
+  </si>
+  <si>
+    <t>Class 0.0 recall = 0.996456512241</t>
+  </si>
+  <si>
+    <t>Class 0.0 F1 Measure = 0.934116534816</t>
+  </si>
+  <si>
+    <t>Class 1.0 precision = 0.367533380183</t>
+  </si>
+  <si>
+    <t>Class 1.0 recall = 0.0153291517674</t>
+  </si>
+  <si>
+    <t>Class 1.0 F1 Measure = 0.029430798233</t>
+  </si>
+  <si>
+    <t>Class 2.0 precision = 0.320943531094</t>
+  </si>
+  <si>
+    <t>Class 2.0 recall = 0.0135432690858</t>
+  </si>
+  <si>
+    <t>Class 2.0 F1 Measure = 0.0259898124566</t>
+  </si>
+  <si>
+    <t>Weighted recall = 0.876419887531</t>
+  </si>
+  <si>
+    <t>Weighted precision = 0.814701900393</t>
+  </si>
+  <si>
+    <t>Weighted F(1) Score = 0.82336047008</t>
+  </si>
+  <si>
+    <t>Weighted F(0.5) Score = 0.797958235951</t>
+  </si>
+  <si>
+    <t>Weighted false positive rate = 0.863546928469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 0.0 precision = 0.877732459557                                            </t>
+  </si>
+  <si>
+    <t>Class 0.0 recall = 1.0</t>
+  </si>
+  <si>
+    <t>Class 0.0 F1 Measure = 0.93488553717</t>
+  </si>
+  <si>
+    <t>Class 1.0 precision = 1.0</t>
+  </si>
+  <si>
+    <t>Class 1.0 recall = 7.32751040506e-05</t>
+  </si>
+  <si>
+    <t>Class 1.0 F1 Measure = 0.000146539470406</t>
+  </si>
+  <si>
+    <t>Class 2.0 precision = 0.0</t>
+  </si>
+  <si>
+    <t>Class 2.0 recall = 0.0</t>
+  </si>
+  <si>
+    <t>Class 2.0 F1 Measure = 0.0</t>
+  </si>
+  <si>
+    <t>Weighted recall = 0.877733196817</t>
+  </si>
+  <si>
+    <t>Weighted precision = 0.852700692497</t>
+  </si>
+  <si>
+    <t>Weighted F(1) Score = 0.820586492834</t>
+  </si>
+  <si>
+    <t>Weighted F(0.5) Score = 0.789751216362</t>
+  </si>
+  <si>
+    <t>Weighted false positive rate = 0.877683881802</t>
+  </si>
+  <si>
+    <t>RF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumTrees</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision = 0.871023139087</t>
+  </si>
+  <si>
+    <t>Recall = 0.871023139087</t>
+  </si>
+  <si>
+    <t>F1 Score = 0.871023139087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 0.0 precision = 0.882418370699                                            </t>
+  </si>
+  <si>
+    <t>Class 0.0 recall = 0.985371262438</t>
+  </si>
+  <si>
+    <t>Class 0.0 F1 Measure = 0.931057425856</t>
+  </si>
+  <si>
+    <t>Class 1.0 precision = 0.318731523784</t>
+  </si>
+  <si>
+    <t>Class 1.0 recall = 0.0521425640424</t>
+  </si>
+  <si>
+    <t>Class 1.0 F1 Measure = 0.0896232950037</t>
+  </si>
+  <si>
+    <t>Class 2.0 precision = 0.288081340614</t>
+  </si>
+  <si>
+    <t>Class 2.0 recall = 0.0461496697131</t>
+  </si>
+  <si>
+    <t>Class 2.0 F1 Measure = 0.0795549084859</t>
+  </si>
+  <si>
+    <t>Weighted recall = 0.871023139087</t>
+  </si>
+  <si>
+    <t>Weighted precision = 0.812269334523</t>
+  </si>
+  <si>
+    <t>Weighted F(1) Score = 0.827770338965</t>
+  </si>
+  <si>
+    <t>Weighted F(0.5) Score = 0.809643601887</t>
+  </si>
+  <si>
+    <t>Weighted false positive rate = 0.828294985971</t>
+  </si>
+  <si>
+    <t>Precision = 0.877729578885</t>
+  </si>
+  <si>
+    <t>Recall = 0.877729578885</t>
+  </si>
+  <si>
+    <t>F1 Score = 0.877729578885</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 0.0 precision = 0.877729283973                                            </t>
+  </si>
+  <si>
+    <t>Class 0.0 F1 Measure = 0.934883735866</t>
+  </si>
+  <si>
+    <t>Class 1.0 recall = 1.46550208101e-05</t>
+  </si>
+  <si>
+    <t>Class 1.0 F1 Measure = 2.93096120873e-05</t>
+  </si>
+  <si>
+    <t>Class 2.0 precision = 1.0</t>
+  </si>
+  <si>
+    <t>Class 2.0 recall = 3.01631828191e-05</t>
+  </si>
+  <si>
+    <t>Class 2.0 F1 Measure = 6.03245460578e-05</t>
+  </si>
+  <si>
+    <t>Weighted recall = 0.877729578885</t>
+  </si>
+  <si>
+    <t>Weighted precision = 0.892679670823</t>
+  </si>
+  <si>
+    <t>Weighted F(1) Score = 0.820577676692</t>
+  </si>
+  <si>
+    <t>Weighted F(0.5) Score = 0.789730791428</t>
+  </si>
+  <si>
+    <t>Class 2.0 recall = 0.399023794997</t>
+  </si>
+  <si>
+    <t>Class 2.0 F1 Measure = 0.0186518744563</t>
+  </si>
+  <si>
+    <t>Weighted recall = 0.877260757379</t>
+  </si>
+  <si>
+    <t>Weighted precision = 0.99528893919</t>
+  </si>
+  <si>
+    <t>Weighted F(1) Score = 0.93196380466</t>
+  </si>
+  <si>
+    <t>Weighted F(0.5) Score = 0.968949047421</t>
+  </si>
+  <si>
+    <t>Weighted false positive rate = 0.571964135311</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Class 0</t>
+  </si>
+  <si>
+    <t>Class 1</t>
+  </si>
+  <si>
+    <t>Class 2</t>
+  </si>
+  <si>
+    <t>Weighted</t>
+  </si>
+  <si>
+    <t>F(0.5)</t>
+  </si>
+  <si>
+    <t>False positive</t>
+  </si>
+  <si>
+    <t>Precision = 0.87775677835</t>
+  </si>
+  <si>
+    <t>Recall = 0.87775677835</t>
+  </si>
+  <si>
+    <t>F1 Score = 0.87775677835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 0.0 precision = 0.999703023795                                            </t>
+  </si>
+  <si>
+    <t>Class 0.0 recall = 0.877969470331</t>
+  </si>
+  <si>
+    <t>Class 0.0 F1 Measure = 0.934890122783</t>
+  </si>
+  <si>
+    <t>Class 1.0 precision = 0.00222730739893</t>
+  </si>
+  <si>
+    <t>Class 1.0 recall = 0.45625</t>
+  </si>
+  <si>
+    <t>Class 1.0 F1 Measure = 0.00443297403978</t>
+  </si>
+  <si>
+    <t>Class 2.0 precision = 0.0016937273683</t>
+  </si>
+  <si>
+    <t>Class 2.0 recall = 0.453125</t>
+  </si>
+  <si>
+    <t>Class 2.0 F1 Measure = 0.00337483998604</t>
+  </si>
+  <si>
+    <t>Weighted recall = 0.87775677835</t>
+  </si>
+  <si>
+    <t>Weighted precision = 0.999202070983</t>
+  </si>
+  <si>
+    <t>Weighted F(1) Score = 0.934422654932</t>
+  </si>
+  <si>
+    <t>Weighted F(0.5) Score = 0.972241403397</t>
+  </si>
+  <si>
+    <t>Weighted false positive rate = 0.519003210812</t>
+  </si>
+  <si>
+    <t>Precision = 0.877791777396</t>
+  </si>
+  <si>
+    <t>Recall = 0.877791777396</t>
+  </si>
+  <si>
+    <t>F1 Score = 0.877791777396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class 0.0 precision = 0.999994500441                                            </t>
+  </si>
+  <si>
+    <t>Class 0.0 recall = 0.877795130005</t>
+  </si>
+  <si>
+    <t>Class 0.0 F1 Measure = 0.93491868129</t>
+  </si>
+  <si>
+    <t>Class 1.0 precision = 3.05110602593e-05</t>
+  </si>
+  <si>
+    <t>Class 1.0 recall = 0.2</t>
+  </si>
+  <si>
+    <t>Class 1.0 F1 Measure = 6.10128126907e-05</t>
+  </si>
+  <si>
+    <t>Class 2.0 precision = 7.30054900128e-05</t>
+  </si>
+  <si>
+    <t>Class 2.0 recall = 1.0</t>
+  </si>
+  <si>
+    <t>Class 2.0 F1 Measure = 0.000146000321201</t>
+  </si>
+  <si>
+    <t>Weighted recall = 0.877791777396</t>
+  </si>
+  <si>
+    <t>Weighted precision = 0.999982432495</t>
+  </si>
+  <si>
+    <t>Weighted F(1) Score = 0.934907399346</t>
+  </si>
+  <si>
+    <t>Weighted F(0.5) Score = 0.972894761907</t>
+  </si>
+  <si>
+    <t>Weighted false positive rate = 0.399995909964</t>
+  </si>
+  <si>
+    <t>Precision = 0.877733196817</t>
+  </si>
+  <si>
+    <t>Recall = 0.877733196817</t>
+  </si>
+  <si>
+    <t>F1 Score = 0.877733196817</t>
+  </si>
   <si>
     <t>DT</t>
   </si>
@@ -173,157 +525,19 @@
   </si>
   <si>
     <t>Class 2.0 precision = 0.00954911809368</t>
-  </si>
-  <si>
-    <t>Class 2.0 recall = 0.399023794997</t>
-  </si>
-  <si>
-    <t>Class 2.0 F1 Measure = 0.0186518744563</t>
-  </si>
-  <si>
-    <t>Weighted recall = 0.877260757379</t>
-  </si>
-  <si>
-    <t>Weighted precision = 0.99528893919</t>
-  </si>
-  <si>
-    <t>Weighted F(1) Score = 0.93196380466</t>
-  </si>
-  <si>
-    <t>Weighted F(0.5) Score = 0.968949047421</t>
-  </si>
-  <si>
-    <t>Weighted false positive rate = 0.571964135311</t>
-  </si>
-  <si>
-    <t>Overall</t>
-  </si>
-  <si>
-    <t>Class 0</t>
-  </si>
-  <si>
-    <t>Class 1</t>
-  </si>
-  <si>
-    <t>Class 2</t>
-  </si>
-  <si>
-    <t>Weighted</t>
-  </si>
-  <si>
-    <t>F(0.5)</t>
-  </si>
-  <si>
-    <t>False positive</t>
-  </si>
-  <si>
-    <t>Precision = 0.87775677835</t>
-  </si>
-  <si>
-    <t>Recall = 0.87775677835</t>
-  </si>
-  <si>
-    <t>F1 Score = 0.87775677835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 0.0 precision = 0.999703023795                                            </t>
-  </si>
-  <si>
-    <t>Class 0.0 recall = 0.877969470331</t>
-  </si>
-  <si>
-    <t>Class 0.0 F1 Measure = 0.934890122783</t>
-  </si>
-  <si>
-    <t>Class 1.0 precision = 0.00222730739893</t>
-  </si>
-  <si>
-    <t>Class 1.0 recall = 0.45625</t>
-  </si>
-  <si>
-    <t>Class 1.0 F1 Measure = 0.00443297403978</t>
-  </si>
-  <si>
-    <t>Class 2.0 precision = 0.0016937273683</t>
-  </si>
-  <si>
-    <t>Class 2.0 recall = 0.453125</t>
-  </si>
-  <si>
-    <t>Class 2.0 F1 Measure = 0.00337483998604</t>
-  </si>
-  <si>
-    <t>Weighted recall = 0.87775677835</t>
-  </si>
-  <si>
-    <t>Weighted precision = 0.999202070983</t>
-  </si>
-  <si>
-    <t>Weighted F(1) Score = 0.934422654932</t>
-  </si>
-  <si>
-    <t>Weighted F(0.5) Score = 0.972241403397</t>
-  </si>
-  <si>
-    <t>Weighted false positive rate = 0.519003210812</t>
-  </si>
-  <si>
-    <t>Precision = 0.877791777396</t>
-  </si>
-  <si>
-    <t>Recall = 0.877791777396</t>
-  </si>
-  <si>
-    <t>F1 Score = 0.877791777396</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class 0.0 precision = 0.999994500441                                            </t>
-  </si>
-  <si>
-    <t>Class 0.0 recall = 0.877795130005</t>
-  </si>
-  <si>
-    <t>Class 0.0 F1 Measure = 0.93491868129</t>
-  </si>
-  <si>
-    <t>Class 1.0 precision = 3.05110602593e-05</t>
-  </si>
-  <si>
-    <t>Class 1.0 recall = 0.2</t>
-  </si>
-  <si>
-    <t>Class 1.0 F1 Measure = 6.10128126907e-05</t>
-  </si>
-  <si>
-    <t>Class 2.0 precision = 7.30054900128e-05</t>
-  </si>
-  <si>
-    <t>Class 2.0 recall = 1.0</t>
-  </si>
-  <si>
-    <t>Class 2.0 F1 Measure = 0.000146000321201</t>
-  </si>
-  <si>
-    <t>Weighted recall = 0.877791777396</t>
-  </si>
-  <si>
-    <t>Weighted precision = 0.999982432495</t>
-  </si>
-  <si>
-    <t>Weighted F(1) Score = 0.934907399346</t>
-  </si>
-  <si>
-    <t>Weighted F(0.5) Score = 0.972894761907</t>
-  </si>
-  <si>
-    <t>Weighted false positive rate = 0.399995909964</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +560,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -414,46 +632,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -463,35 +659,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -816,41 +990,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A2:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E10" sqref="E10:E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="1" t="s">
-        <v>60</v>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="1" t="s">
-        <v>61</v>
+      <c r="M2" s="1"/>
+      <c r="N2" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="1" t="s">
-        <v>62</v>
+      <c r="Q2" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -859,64 +1033,64 @@
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -929,56 +1103,56 @@
       <c r="D4">
         <v>30</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
+      <c r="E4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>8</v>
+        <v>122</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>11</v>
+        <v>125</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>16</v>
+        <v>128</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="R4" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="T4" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="U4" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -991,56 +1165,56 @@
       <c r="D5">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>25</v>
+      <c r="E5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>28</v>
+        <v>142</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>31</v>
+        <v>145</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>36</v>
+        <v>148</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1053,56 +1227,56 @@
       <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>42</v>
+      <c r="E6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>45</v>
+        <v>159</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>48</v>
+        <v>162</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>53</v>
+        <v>165</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="T6" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="U6" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -1116,55 +1290,55 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="O7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="P7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="S7" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="U7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1178,58 +1352,59 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="P8" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="Q8" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="R8" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="S8" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="T8" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="U8" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="5">
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
@@ -1237,10 +1412,11 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="Q2:U2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -1248,23 +1424,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="10.83203125" style="3"/>
-    <col min="8" max="8" width="10.83203125" style="3"/>
-    <col min="9" max="10" width="10.83203125" style="4"/>
-    <col min="11" max="11" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="8" max="8" width="10.83203125" style="4"/>
+    <col min="9" max="10" width="10.83203125" style="5"/>
+    <col min="11" max="11" width="10.83203125" style="4"/>
+    <col min="12" max="12" width="10.83203125" style="5"/>
     <col min="13" max="13" width="10.83203125" style="6"/>
-    <col min="17" max="17" width="10.83203125" style="3"/>
-    <col min="18" max="20" width="10.83203125" style="4"/>
+    <col min="17" max="17" width="10.83203125" style="4"/>
+    <col min="18" max="20" width="10.83203125" style="5"/>
     <col min="21" max="21" width="12.1640625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1283,96 +1459,96 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>116</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
+      <c r="H2" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="1" t="s">
-        <v>60</v>
+      <c r="K2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="2"/>
-      <c r="M2" s="5"/>
+      <c r="M2" s="1"/>
       <c r="N2" s="2" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="1" t="s">
-        <v>62</v>
+      <c r="Q2" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="5"/>
+      <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21">
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>3</v>
+        <v>119</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1771,6 +1947,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="5">
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
@@ -1778,9 +1955,857 @@
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:U2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:U7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>500</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>500</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" t="s">
+        <v>63</v>
+      </c>
+      <c r="T6" t="s">
+        <v>64</v>
+      </c>
+      <c r="U6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="5">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A2:U7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <f>VALUE(MID(RFRaw!E4,FIND("= ",RFRaw!E4)+1,256))</f>
+        <v>0.87773319681700002</v>
+      </c>
+      <c r="F4">
+        <f>VALUE(MID(RFRaw!F4,FIND("= ",RFRaw!F4)+1,256))</f>
+        <v>0.87773319681700002</v>
+      </c>
+      <c r="G4">
+        <f>VALUE(MID(RFRaw!G4,FIND("= ",RFRaw!G4)+1,256))</f>
+        <v>0.87773319681700002</v>
+      </c>
+      <c r="H4">
+        <f>VALUE(MID(RFRaw!H4,FIND("= ",RFRaw!H4)+1,256))</f>
+        <v>0.87773245955699997</v>
+      </c>
+      <c r="I4">
+        <f>VALUE(MID(RFRaw!I4,FIND("= ",RFRaw!I4)+1,256))</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>VALUE(MID(RFRaw!J4,FIND("= ",RFRaw!J4)+1,256))</f>
+        <v>0.93488553717</v>
+      </c>
+      <c r="K4">
+        <f>VALUE(MID(RFRaw!K4,FIND("= ",RFRaw!K4)+1,256))</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>VALUE(MID(RFRaw!L4,FIND("= ",RFRaw!L4)+1,256))</f>
+        <v>7.3275104050599997E-5</v>
+      </c>
+      <c r="M4">
+        <f>VALUE(MID(RFRaw!M4,FIND("= ",RFRaw!M4)+1,256))</f>
+        <v>1.4653947040599999E-4</v>
+      </c>
+      <c r="N4">
+        <f>VALUE(MID(RFRaw!N4,FIND("= ",RFRaw!N4)+1,256))</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>VALUE(MID(RFRaw!O4,FIND("= ",RFRaw!O4)+1,256))</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>VALUE(MID(RFRaw!P4,FIND("= ",RFRaw!P4)+1,256))</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f>VALUE(MID(RFRaw!Q4,FIND("= ",RFRaw!Q4)+1,256))</f>
+        <v>0.87773319681700002</v>
+      </c>
+      <c r="R4">
+        <f>VALUE(MID(RFRaw!R4,FIND("= ",RFRaw!R4)+1,256))</f>
+        <v>0.85270069249699998</v>
+      </c>
+      <c r="S4">
+        <f>VALUE(MID(RFRaw!S4,FIND("= ",RFRaw!S4)+1,256))</f>
+        <v>0.82058649283399998</v>
+      </c>
+      <c r="T4">
+        <f>VALUE(MID(RFRaw!T4,FIND("= ",RFRaw!T4)+1,256))</f>
+        <v>0.78975121636199996</v>
+      </c>
+      <c r="U4">
+        <f>VALUE(MID(RFRaw!U4,FIND("= ",RFRaw!U4)+1,256))</f>
+        <v>0.87768388180199997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f>VALUE(MID(RFRaw!E5,FIND("= ",RFRaw!E5)+1,256))</f>
+        <v>0.87102313908700002</v>
+      </c>
+      <c r="F5">
+        <f>VALUE(MID(RFRaw!F5,FIND("= ",RFRaw!F5)+1,256))</f>
+        <v>0.87102313908700002</v>
+      </c>
+      <c r="G5">
+        <f>VALUE(MID(RFRaw!G5,FIND("= ",RFRaw!G5)+1,256))</f>
+        <v>0.87102313908700002</v>
+      </c>
+      <c r="H5">
+        <f>VALUE(MID(RFRaw!H5,FIND("= ",RFRaw!H5)+1,256))</f>
+        <v>0.88241837069899998</v>
+      </c>
+      <c r="I5">
+        <f>VALUE(MID(RFRaw!I5,FIND("= ",RFRaw!I5)+1,256))</f>
+        <v>0.985371262438</v>
+      </c>
+      <c r="J5">
+        <f>VALUE(MID(RFRaw!J5,FIND("= ",RFRaw!J5)+1,256))</f>
+        <v>0.93105742585600004</v>
+      </c>
+      <c r="K5">
+        <f>VALUE(MID(RFRaw!K5,FIND("= ",RFRaw!K5)+1,256))</f>
+        <v>0.31873152378399999</v>
+      </c>
+      <c r="L5">
+        <f>VALUE(MID(RFRaw!L5,FIND("= ",RFRaw!L5)+1,256))</f>
+        <v>5.2142564042400003E-2</v>
+      </c>
+      <c r="M5">
+        <f>VALUE(MID(RFRaw!M5,FIND("= ",RFRaw!M5)+1,256))</f>
+        <v>8.9623295003700004E-2</v>
+      </c>
+      <c r="N5">
+        <f>VALUE(MID(RFRaw!N5,FIND("= ",RFRaw!N5)+1,256))</f>
+        <v>0.28808134061399998</v>
+      </c>
+      <c r="O5">
+        <f>VALUE(MID(RFRaw!O5,FIND("= ",RFRaw!O5)+1,256))</f>
+        <v>4.61496697131E-2</v>
+      </c>
+      <c r="P5">
+        <f>VALUE(MID(RFRaw!P5,FIND("= ",RFRaw!P5)+1,256))</f>
+        <v>7.9554908485899994E-2</v>
+      </c>
+      <c r="Q5">
+        <f>VALUE(MID(RFRaw!Q5,FIND("= ",RFRaw!Q5)+1,256))</f>
+        <v>0.87102313908700002</v>
+      </c>
+      <c r="R5">
+        <f>VALUE(MID(RFRaw!R5,FIND("= ",RFRaw!R5)+1,256))</f>
+        <v>0.81226933452299999</v>
+      </c>
+      <c r="S5">
+        <f>VALUE(MID(RFRaw!S5,FIND("= ",RFRaw!S5)+1,256))</f>
+        <v>0.82777033896499996</v>
+      </c>
+      <c r="T5">
+        <f>VALUE(MID(RFRaw!T5,FIND("= ",RFRaw!T5)+1,256))</f>
+        <v>0.80964360188700002</v>
+      </c>
+      <c r="U5">
+        <f>VALUE(MID(RFRaw!U5,FIND("= ",RFRaw!U5)+1,256))</f>
+        <v>0.82829498597100004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <f>VALUE(MID(RFRaw!E6,FIND("= ",RFRaw!E6)+1,256))</f>
+        <v>0.87772957888500003</v>
+      </c>
+      <c r="F6">
+        <f>VALUE(MID(RFRaw!F6,FIND("= ",RFRaw!F6)+1,256))</f>
+        <v>0.87772957888500003</v>
+      </c>
+      <c r="G6">
+        <f>VALUE(MID(RFRaw!G6,FIND("= ",RFRaw!G6)+1,256))</f>
+        <v>0.87772957888500003</v>
+      </c>
+      <c r="H6">
+        <f>VALUE(MID(RFRaw!H6,FIND("= ",RFRaw!H6)+1,256))</f>
+        <v>0.87772928397299999</v>
+      </c>
+      <c r="I6">
+        <f>VALUE(MID(RFRaw!I6,FIND("= ",RFRaw!I6)+1,256))</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>VALUE(MID(RFRaw!J6,FIND("= ",RFRaw!J6)+1,256))</f>
+        <v>0.93488373586600004</v>
+      </c>
+      <c r="K6">
+        <f>VALUE(MID(RFRaw!K6,FIND("= ",RFRaw!K6)+1,256))</f>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f>VALUE(MID(RFRaw!L6,FIND("= ",RFRaw!L6)+1,256))</f>
+        <v>1.4655020810099999E-5</v>
+      </c>
+      <c r="M6">
+        <f>VALUE(MID(RFRaw!M6,FIND("= ",RFRaw!M6)+1,256))</f>
+        <v>2.93096120873E-5</v>
+      </c>
+      <c r="N6">
+        <f>VALUE(MID(RFRaw!N6,FIND("= ",RFRaw!N6)+1,256))</f>
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <f>VALUE(MID(RFRaw!O6,FIND("= ",RFRaw!O6)+1,256))</f>
+        <v>3.01631828191E-5</v>
+      </c>
+      <c r="P6">
+        <f>VALUE(MID(RFRaw!P6,FIND("= ",RFRaw!P6)+1,256))</f>
+        <v>6.0324546057799998E-5</v>
+      </c>
+      <c r="Q6">
+        <f>VALUE(MID(RFRaw!Q6,FIND("= ",RFRaw!Q6)+1,256))</f>
+        <v>0.87772957888500003</v>
+      </c>
+      <c r="R6">
+        <f>VALUE(MID(RFRaw!R6,FIND("= ",RFRaw!R6)+1,256))</f>
+        <v>0.89267967082300004</v>
+      </c>
+      <c r="S6">
+        <f>VALUE(MID(RFRaw!S6,FIND("= ",RFRaw!S6)+1,256))</f>
+        <v>0.82057767669199999</v>
+      </c>
+      <c r="T6">
+        <f>VALUE(MID(RFRaw!T6,FIND("= ",RFRaw!T6)+1,256))</f>
+        <v>0.78973079142799996</v>
+      </c>
+      <c r="U6">
+        <f>VALUE(MID(RFRaw!U6,FIND("= ",RFRaw!U6)+1,256))</f>
+        <v>0.87770985287900005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>300</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>VALUE(MID(RFRaw!E7,FIND("= ",RFRaw!E7)+1,256))</f>
+        <v>0.87641988753099997</v>
+      </c>
+      <c r="F7">
+        <f>VALUE(MID(RFRaw!F7,FIND("= ",RFRaw!F7)+1,256))</f>
+        <v>0.87641988753099997</v>
+      </c>
+      <c r="G7">
+        <f>VALUE(MID(RFRaw!G7,FIND("= ",RFRaw!G7)+1,256))</f>
+        <v>0.87641988753099997</v>
+      </c>
+      <c r="H7">
+        <f>VALUE(MID(RFRaw!H7,FIND("= ",RFRaw!H7)+1,256))</f>
+        <v>0.87911748234499998</v>
+      </c>
+      <c r="I7">
+        <f>VALUE(MID(RFRaw!I7,FIND("= ",RFRaw!I7)+1,256))</f>
+        <v>0.99645651224099996</v>
+      </c>
+      <c r="J7">
+        <f>VALUE(MID(RFRaw!J7,FIND("= ",RFRaw!J7)+1,256))</f>
+        <v>0.93411653481599999</v>
+      </c>
+      <c r="K7">
+        <f>VALUE(MID(RFRaw!K7,FIND("= ",RFRaw!K7)+1,256))</f>
+        <v>0.36753338018300002</v>
+      </c>
+      <c r="L7">
+        <f>VALUE(MID(RFRaw!L7,FIND("= ",RFRaw!L7)+1,256))</f>
+        <v>1.53291517674E-2</v>
+      </c>
+      <c r="M7">
+        <f>VALUE(MID(RFRaw!M7,FIND("= ",RFRaw!M7)+1,256))</f>
+        <v>2.9430798232999999E-2</v>
+      </c>
+      <c r="N7">
+        <f>VALUE(MID(RFRaw!N7,FIND("= ",RFRaw!N7)+1,256))</f>
+        <v>0.32094353109399998</v>
+      </c>
+      <c r="O7">
+        <f>VALUE(MID(RFRaw!O7,FIND("= ",RFRaw!O7)+1,256))</f>
+        <v>1.3543269085799999E-2</v>
+      </c>
+      <c r="P7">
+        <f>VALUE(MID(RFRaw!P7,FIND("= ",RFRaw!P7)+1,256))</f>
+        <v>2.5989812456599998E-2</v>
+      </c>
+      <c r="Q7">
+        <f>VALUE(MID(RFRaw!Q7,FIND("= ",RFRaw!Q7)+1,256))</f>
+        <v>0.87641988753099997</v>
+      </c>
+      <c r="R7">
+        <f>VALUE(MID(RFRaw!R7,FIND("= ",RFRaw!R7)+1,256))</f>
+        <v>0.81470190039299994</v>
+      </c>
+      <c r="S7">
+        <f>VALUE(MID(RFRaw!S7,FIND("= ",RFRaw!S7)+1,256))</f>
+        <v>0.82336047008000002</v>
+      </c>
+      <c r="T7">
+        <f>VALUE(MID(RFRaw!T7,FIND("= ",RFRaw!T7)+1,256))</f>
+        <v>0.79795823595100002</v>
+      </c>
+      <c r="U7">
+        <f>VALUE(MID(RFRaw!U7,FIND("= ",RFRaw!U7)+1,256))</f>
+        <v>0.86354692846900005</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="5">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="14" max="1048575" man="1"/>
+    <brk id="22" max="1048575" man="1"/>
+  </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
